--- a/_images/familyfundayfixtures.xlsx
+++ b/_images/familyfundayfixtures.xlsx
@@ -228,12 +228,6 @@
     <t>Praveen &amp; Prakash</t>
   </si>
   <si>
-    <t>Vamshi Ram, Satish,Gangaiah, Bala</t>
-  </si>
-  <si>
-    <t>Bhakta, Madhu,Shanti Kishore, Vamshi Mohan</t>
-  </si>
-  <si>
     <t>Ramki, Ravi, Ashok, Vikas</t>
   </si>
   <si>
@@ -246,13 +240,19 @@
     <t>Vamshi Mohan, Shanti Kishore</t>
   </si>
   <si>
-    <t>Bhakta &amp; Madhu</t>
-  </si>
-  <si>
     <t>Vamshi Ram &amp; Bala</t>
   </si>
   <si>
-    <t>Satish &amp; Gangaiah</t>
+    <t>Vamshi Ram, Satish,Prathi, Bala</t>
+  </si>
+  <si>
+    <t>Gangaiah Madhu,Shanti Kishore, Vamshi Mohan</t>
+  </si>
+  <si>
+    <t>Satish &amp; Prathi</t>
+  </si>
+  <si>
+    <t>Gangaiah &amp; Madhu</t>
   </si>
 </sst>
 </file>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1074,7 +1074,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>41</v>
@@ -1086,7 +1086,7 @@
         <v>52</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20">
@@ -1102,7 +1102,7 @@
         <v>53</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="40">
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>9</v>
@@ -1154,7 +1154,7 @@
         <v>55</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20">
@@ -1170,7 +1170,7 @@
         <v>56</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="40">
@@ -1218,7 +1218,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>43</v>
@@ -1230,7 +1230,7 @@
         <v>22</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20">
@@ -1246,7 +1246,7 @@
         <v>23</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="40">
